--- a/DictionnaireDeDonnées.xlsx
+++ b/DictionnaireDeDonnées.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Nom</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Mot de passe user</t>
   </si>
   <si>
-    <t>PostUser</t>
-  </si>
-  <si>
     <t>PrenomUser</t>
   </si>
   <si>
-    <t>NomAdmin</t>
-  </si>
-  <si>
     <t>NumPlace</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t xml:space="preserve">PlaceLibre </t>
   </si>
   <si>
-    <t>PwdAdmin</t>
-  </si>
-  <si>
     <t>Durée</t>
   </si>
   <si>
@@ -117,21 +108,6 @@
     <t>Prenom de l'user</t>
   </si>
   <si>
-    <t>Post de l'user</t>
-  </si>
-  <si>
-    <t>IdAdmin</t>
-  </si>
-  <si>
-    <t>Id de l'admin</t>
-  </si>
-  <si>
-    <t>Nom de l'admin</t>
-  </si>
-  <si>
-    <t>Mot de passe de l'admin</t>
-  </si>
-  <si>
     <t>Numero de la place</t>
   </si>
   <si>
@@ -175,6 +151,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Statut</t>
   </si>
 </sst>
 </file>
@@ -198,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,25 +198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,15 +242,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -607,14 +579,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -622,29 +594,29 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -652,10 +624,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -664,137 +636,133 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -802,14 +770,14 @@
         <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -817,114 +785,69 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>24</v>
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
